--- a/测试问题/问题单-2017-04-19.xlsx
+++ b/测试问题/问题单-2017-04-19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>周源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +667,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -706,7 +710,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -766,7 +772,9 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -796,7 +804,9 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -811,7 +821,9 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -826,7 +838,9 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -886,7 +900,9 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -901,7 +917,9 @@
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -916,7 +934,9 @@
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -931,7 +951,6 @@
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -946,7 +965,9 @@
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -976,7 +997,9 @@
       <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -991,7 +1014,9 @@
       <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -1006,7 +1031,9 @@
       <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -1072,6 +1099,9 @@
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E29" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -1089,6 +1119,9 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
